--- a/fuentes/contenidos/grado11/guion13/EsqueletoGuion_CN_11_13_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion13/EsqueletoGuion_CN_11_13_CO.xlsx
@@ -13,12 +13,12 @@
     <sheet name="CUADERNO DEL PROFESOR" sheetId="4" r:id="rId4"/>
     <sheet name="CUADERNO DE ESTUDIO" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="104">
   <si>
     <t>TITULO</t>
   </si>
@@ -113,64 +113,73 @@
     <t>Recursos M aleatorios y diaporama F1</t>
   </si>
   <si>
+    <t>Recurso FQ_10_13_08-01</t>
+  </si>
+  <si>
+    <t>RM_01_02_CO</t>
+  </si>
+  <si>
+    <t>Recursos M</t>
+  </si>
+  <si>
+    <t>Recurso M6A-01</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso M2A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Recurso FQ_10_13_08-02</t>
+  </si>
+  <si>
     <t>Diaporama F1-01</t>
   </si>
   <si>
-    <t>RM_01_02_CO</t>
-  </si>
-  <si>
-    <t>Recursos M</t>
-  </si>
-  <si>
-    <t>Recurso M6A-01</t>
-  </si>
-  <si>
-    <t>RM_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso M2A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t>Recurso M5A-01</t>
+  </si>
+  <si>
+    <t>Recurso M6A-02</t>
+  </si>
+  <si>
+    <t>Recurso M10A-01</t>
+  </si>
+  <si>
+    <t>Recurso F6-02</t>
+  </si>
+  <si>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>Recurso FQ_10_13_08-03</t>
   </si>
   <si>
     <t>Diaporama F1-02</t>
   </si>
   <si>
-    <t>Diaporama F1-03</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
-  </si>
-  <si>
-    <t>Recurso M5A-01</t>
-  </si>
-  <si>
-    <t>Recurso M6A-02</t>
-  </si>
-  <si>
-    <t>Recurso M10A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Diaporama F1-04</t>
-  </si>
-  <si>
     <t>Recurso M101A-04</t>
   </si>
   <si>
-    <t>Diaporama F1-05</t>
+    <t>Recurso FQ_10_13_08-04</t>
   </si>
   <si>
     <t>Recurso M6A-03</t>
   </si>
   <si>
-    <t>Recurso F6-04</t>
-  </si>
-  <si>
-    <t>Diaporama F1-06</t>
+    <t>Recurso F6-03</t>
+  </si>
+  <si>
+    <t>Recurso FQ_10_13_08-05</t>
+  </si>
+  <si>
+    <t>Recurso F7-01</t>
   </si>
   <si>
     <t>Recurso M101A-05</t>
@@ -858,7 +867,7 @@
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375"/>
@@ -1120,7 +1129,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -1140,7 +1149,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
@@ -1150,6 +1159,21 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
       <c r="F15">
         <v>14</v>
       </c>
@@ -1165,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
@@ -1185,7 +1209,7 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
@@ -1205,7 +1229,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -1225,7 +1249,7 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -1245,7 +1269,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -1265,7 +1289,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
         <v>32</v>
@@ -1279,16 +1303,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -1305,7 +1329,7 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>35</v>
@@ -1325,7 +1349,7 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
@@ -1345,7 +1369,7 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
@@ -1365,7 +1389,7 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
         <v>35</v>
@@ -1385,7 +1409,7 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
         <v>35</v>
@@ -1433,44 +1457,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1515,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625"/>
     <col min="5" max="1025" width="10.7109375"/>
@@ -1516,7 +1540,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,7 +1551,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,7 +1562,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1573,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,7 +1584,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,7 +1595,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,7 +1606,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,7 +1617,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,7 +1628,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,7 +1639,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,7 +1650,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1634,10 +1658,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,18 +1669,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
       <c r="C15" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,10 +1691,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,10 +1713,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,10 +1724,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,10 +1735,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,10 +1746,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,10 +1757,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,10 +1768,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,10 +1779,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,10 +1790,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,10 +1801,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,10 +1812,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1796,10 +1823,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1807,10 +1834,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1818,10 +1845,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1847,7 +1874,7 @@
     <col min="5" max="5" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="1025" width="10.7109375" style="8"/>
     <col min="1026" max="16384" width="9" style="8"/>
@@ -1887,10 +1914,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1898,10 +1925,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1909,10 +1936,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1920,10 +1947,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1931,16 +1958,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1948,13 +1975,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1962,13 +1989,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1976,13 +2003,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1990,13 +2017,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2004,19 +2031,19 @@
         <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2024,13 +2051,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2038,13 +2065,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2052,13 +2079,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2066,13 +2093,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2080,13 +2107,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2094,13 +2121,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2108,13 +2135,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2122,13 +2149,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2136,13 +2163,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2150,13 +2177,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2164,13 +2191,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2178,13 +2205,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2192,19 +2219,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>36</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2212,13 +2239,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2226,13 +2253,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2240,13 +2267,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2254,13 +2281,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2268,13 +2295,19 @@
         <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2282,13 +2315,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2296,13 +2329,13 @@
         <v>20</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2310,13 +2343,13 @@
         <v>20</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2324,13 +2357,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2338,12 +2371,18 @@
         <v>20</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2352,13 +2391,13 @@
         <v>20</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2366,13 +2405,13 @@
         <v>20</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2380,13 +2419,13 @@
         <v>20</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2394,13 +2433,13 @@
         <v>20</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2408,13 +2447,13 @@
         <v>20</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2422,13 +2461,13 @@
         <v>20</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2436,19 +2475,13 @@
         <v>20</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2456,13 +2489,13 @@
         <v>20</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2470,12 +2503,18 @@
         <v>20</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E43" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2484,13 +2523,13 @@
         <v>20</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2498,13 +2537,13 @@
         <v>20</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2512,13 +2551,13 @@
         <v>20</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2526,13 +2565,13 @@
         <v>20</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2540,13 +2579,19 @@
         <v>20</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2554,10 +2599,10 @@
         <v>20</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>68</v>
@@ -2568,13 +2613,13 @@
         <v>20</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2582,13 +2627,13 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2596,13 +2641,13 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2610,10 +2655,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>68</v>
@@ -2624,19 +2669,13 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2644,13 +2683,13 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2658,13 +2697,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2672,13 +2711,19 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2686,10 +2731,10 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>68</v>
@@ -2700,13 +2745,13 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2714,13 +2759,13 @@
         <v>20</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2728,13 +2773,13 @@
         <v>20</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2742,10 +2787,10 @@
         <v>20</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>68</v>
@@ -2756,19 +2801,13 @@
         <v>20</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2776,13 +2815,13 @@
         <v>20</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2790,13 +2829,13 @@
         <v>20</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2804,13 +2843,19 @@
         <v>20</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2818,10 +2863,10 @@
         <v>20</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>68</v>
@@ -2832,13 +2877,13 @@
         <v>20</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2846,13 +2891,13 @@
         <v>20</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2860,13 +2905,13 @@
         <v>20</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2874,10 +2919,10 @@
         <v>20</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>68</v>
@@ -2888,33 +2933,27 @@
         <v>20</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H72" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2922,13 +2961,13 @@
         <v>20</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2936,13 +2975,19 @@
         <v>20</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2950,10 +2995,10 @@
         <v>20</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>68</v>
@@ -2964,13 +3009,13 @@
         <v>20</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2978,13 +3023,13 @@
         <v>20</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2992,13 +3037,13 @@
         <v>20</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3006,13 +3051,19 @@
         <v>20</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3020,13 +3071,13 @@
         <v>20</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3034,13 +3085,13 @@
         <v>20</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3048,13 +3099,13 @@
         <v>20</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3062,13 +3113,13 @@
         <v>20</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3076,13 +3127,19 @@
         <v>20</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3090,13 +3147,13 @@
         <v>20</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3104,13 +3161,13 @@
         <v>20</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3118,13 +3175,13 @@
         <v>20</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3132,19 +3189,13 @@
         <v>20</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I89" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3152,13 +3203,13 @@
         <v>20</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3166,13 +3217,13 @@
         <v>20</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3180,13 +3231,13 @@
         <v>20</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3194,13 +3245,13 @@
         <v>20</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3208,16 +3259,19 @@
         <v>20</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F94" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G94" s="9" t="s">
-        <v>65</v>
+      <c r="E94" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3225,16 +3279,13 @@
         <v>20</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3242,16 +3293,13 @@
         <v>20</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3259,16 +3307,13 @@
         <v>20</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3276,16 +3321,13 @@
         <v>20</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3293,15 +3335,18 @@
         <v>20</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G99" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I99" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3310,16 +3355,16 @@
         <v>20</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3327,16 +3372,16 @@
         <v>20</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3344,22 +3389,16 @@
         <v>20</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3367,16 +3406,16 @@
         <v>20</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3384,16 +3423,16 @@
         <v>20</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3401,16 +3440,16 @@
         <v>20</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3418,16 +3457,16 @@
         <v>20</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3435,16 +3474,16 @@
         <v>20</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3452,15 +3491,21 @@
         <v>20</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G108" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I108" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3469,16 +3514,16 @@
         <v>20</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3486,16 +3531,16 @@
         <v>20</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3503,16 +3548,16 @@
         <v>20</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3520,16 +3565,16 @@
         <v>20</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3537,16 +3582,16 @@
         <v>20</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3554,16 +3599,16 @@
         <v>20</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3571,22 +3616,16 @@
         <v>20</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I115" s="10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3594,16 +3633,16 @@
         <v>20</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3611,16 +3650,16 @@
         <v>20</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3628,16 +3667,16 @@
         <v>20</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3645,16 +3684,16 @@
         <v>20</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3662,16 +3701,16 @@
         <v>20</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3679,15 +3718,21 @@
         <v>20</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G121" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I121" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3696,16 +3741,16 @@
         <v>20</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3713,16 +3758,16 @@
         <v>20</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3730,22 +3775,16 @@
         <v>20</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I124" s="10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3753,16 +3792,16 @@
         <v>20</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3770,16 +3809,16 @@
         <v>20</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -3787,16 +3826,16 @@
         <v>20</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3804,16 +3843,16 @@
         <v>20</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -3821,22 +3860,16 @@
         <v>20</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I129" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3844,13 +3877,22 @@
         <v>20</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D130" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G130" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E130" s="9" t="s">
-        <v>65</v>
+      <c r="H130" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -3858,13 +3900,16 @@
         <v>20</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>66</v>
+        <v>98</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -3872,13 +3917,16 @@
         <v>20</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>67</v>
+        <v>98</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -3886,13 +3934,16 @@
         <v>20</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>68</v>
+        <v>98</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -3900,19 +3951,16 @@
         <v>20</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E134" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G134" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I134" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -3920,10 +3968,22 @@
         <v>20</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>65</v>
+        <v>92</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3931,10 +3991,13 @@
         <v>20</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>66</v>
+        <v>92</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -3942,10 +4005,13 @@
         <v>20</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -3953,10 +4019,13 @@
         <v>20</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>68</v>
+        <v>92</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -3964,16 +4033,13 @@
         <v>20</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C139" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E139" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="H139" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I139" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -3981,10 +4047,19 @@
         <v>20</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>65</v>
+        <v>92</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -3992,10 +4067,10 @@
         <v>20</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -4003,10 +4078,10 @@
         <v>20</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -4014,10 +4089,10 @@
         <v>20</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -4025,27 +4100,27 @@
         <v>20</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H144" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I144" s="10" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I145" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,10 +4128,10 @@
         <v>20</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4064,10 +4139,10 @@
         <v>20</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4075,10 +4150,10 @@
         <v>20</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4086,27 +4161,27 @@
         <v>20</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H149" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I149" s="10" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="H150" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -4114,10 +4189,10 @@
         <v>20</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -4125,10 +4200,10 @@
         <v>20</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -4136,10 +4211,10 @@
         <v>20</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -4147,13 +4222,10 @@
         <v>20</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I154" s="10" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -4161,16 +4233,91 @@
         <v>20</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I161" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
